--- a/biology/Botanique/Rapatea/Rapatea.xlsx
+++ b/biology/Botanique/Rapatea/Rapatea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rapatea est un genre de plantes herbacées, néotropicales, de la famille des Rapateaceae, comportant 22 espèces. L'espèce type est Rapatea paludosa Aubl..
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Rapatea regroupe des herbacées terrestres. Les limbes des feuilles sont opposés, pliées et engainés les uns dans les autres dans un arrangement sigmoïde. L'inflorescence est portée par 2 grandes bractées opposées, sous-tendant étroitement une « tête » sphéroïde, allongée ou comprimée. Les fleurs sessiles ou courtement pédicellées comportent des anthères introrse, à 4 loges, avec un appendice apical encapuchonné, et déhiscent par un unique pore apical située sous le capuchon. L'ovaire compte 3 loges contenant chacune 2 ovules basaux (parfois un seul à la suite d'un avortement). Le fuit est une capsule durcie au-dessus du milieu, à déhiscence loculicide. La graine est généralement solitaire, oblongoïde, finement et longitudinalement striée[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Rapatea regroupe des herbacées terrestres. Les limbes des feuilles sont opposés, pliées et engainés les uns dans les autres dans un arrangement sigmoïde. L'inflorescence est portée par 2 grandes bractées opposées, sous-tendant étroitement une « tête » sphéroïde, allongée ou comprimée. Les fleurs sessiles ou courtement pédicellées comportent des anthères introrse, à 4 loges, avec un appendice apical encapuchonné, et déhiscent par un unique pore apical située sous le capuchon. L'ovaire compte 3 loges contenant chacune 2 ovules basaux (parfois un seul à la suite d'un avortement). Le fuit est une capsule durcie au-dessus du milieu, à déhiscence loculicide. La graine est généralement solitaire, oblongoïde, finement et longitudinalement striée.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Rapatea est présent du sud de l'Amérique centrale au nord de l'Amérique du Sud : Panama, Colombie, Venezuela, Trinidad, Guyana, Suriname, Guyane, Équateur, Pérou, Brésil, Bolivie[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Rapatea est présent du sud de l'Amérique centrale au nord de l'Amérique du Sud : Panama, Colombie, Venezuela, Trinidad, Guyana, Suriname, Guyane, Équateur, Pérou, Brésil, Bolivie.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante : 
 « RAPATEA. (Tabula 118.)
@@ -585,7 +603,7 @@
 PIST. Germen ſubromndum, tribus ſtriis notatum. Stylus longiſſimus, ſtriatus. Stigmata tria, in ſpiram convoluta. 
 PER. . . . 
 SEM. . . . »
-— Fusée-Aublet, 1775[2].
+— Fusée-Aublet, 1775.
 </t>
         </is>
       </c>
@@ -614,10 +632,48 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List[3] :
-Espèces valides
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Rapatea</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rapatea</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Espèces valides</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Rapatea angustifolia Spruce ex Körn.
 Rapatea aracamuniana Steyerm.
 Rapatea chimantensis Steyerm.
@@ -640,7 +696,43 @@
 Rapatea undulata Ducke
 Rapatea xiphoides Sandwith
 Rapatea yapacana Maguire
-Taxon non résolu
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Rapatea</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rapatea</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Taxon non résolu</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Rapatea arthrophylla Mart.
 Rapatea friderici-augustii R.H.Schomb.
 Rapatea martiana Nees
